--- a/doc/이펙트 리스트.xlsx
+++ b/doc/이펙트 리스트.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15030" yWindow="-60" windowWidth="13155" windowHeight="14205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="이펙트 컨셉" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>항목</t>
   </si>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주인공 점프 할 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주인공 이단 점프 할 때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,23 +70,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 준비 중 피격 당하여 뒷자리로 굴러 갈 때의 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내부 상점 구매 성공 이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주인공 무적 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼지같은 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 중 피격 당하여 뒷자리로 굴러 갈 때의 이펙트
+먼지같은 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 위에 별이 도는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 이펙트 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝 이펙트 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 발사 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 아이템 획득 시 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트(적 제외)에 부딪혔을 때 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스가 무기 휘두를 때의 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 배가 움직일 때의 물 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 수하가 폭탄 공격 할때의 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 적이 총 발사할 때의 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 수하가 총 발사할 때의 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 적이 빨리 달려갈 때의 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중 적이 빠르게 날아갈 때의 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 배가 침몰할 때의 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/y0hWi2XjRec 해당영상(2분 18초~2뷴 23초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시적으로 금빛의 번쩍이는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/4q0H1TvwXGk 해당영상(26초~32초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 주변에 돌진하는 듯한 이펙트가 씌여진다(색은 붉은 불꽃 처럼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/0VM2de2VFe0 해당영상(5~6초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가볍고 심플한 느낌의 불꽃이 터지는 듯한 이펙트(색상은 흰색 계열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 공격 모션 곤봉 뒤에 생기는 잔상 이펙트(보다 간결하고 심플하게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트가 진행방향에 따라 물살을 가르는 듯한 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류(따로 전달됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/jGvgdrya26A 해당영상(5분2초~5분19초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상에 간헐적으로 보이는 캐릭터가 대시할 시 나오는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시 시작점 부터 끝까지 일직선으로 바람 모양을 선으로 표현해준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준시 불투명한 붉은색의 궤적이 보인 뒤 탄환이 발사된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 모음 폴더 '총발사 이펙트' 영상 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/zUXIy4oZYM0 해당영상(20초부터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카툰스러운 느낌의 타격, 피격 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염을 길고 얇게 방사하는 느낌의 이펙트(붉은색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/wypXV8MJ9JQ 해당영상(4~8초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 투사체가 던져지고난 1초뒤에 투사체의 중심으로 부터 폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/satlEgFu47I 해당영상(17초~1분5초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/TnefTkvdeu8 해당영상 (2~6초) // 이펙트 모음 폴더 폭발'1, 2, 3' 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/0VM2de2VFe0 해당영상(6~7초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 밑에 짧은시간동안 바람이 나타났다가 사라지는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼지같은 이펙트(적용 됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +266,64 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,15 +331,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="강조색2" xfId="1" builtinId="33"/>
+    <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -140,6 +450,155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="무기(동료 캐릭터)차징 컨셉.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="238125"/>
+          <a:ext cx="12982575" cy="6648450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>677677</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="러닝 이펙트 컨셉.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="8001000"/>
+          <a:ext cx="12993502" cy="5791200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>649103</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="무기(동료 캐릭터) 발사 이펙트 컨셉.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14878050"/>
+          <a:ext cx="12993503" cy="5819775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -217,7 +676,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,7 +710,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,128 +885,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="49.75" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="6" width="73.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="3:6">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="4" spans="3:6">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" ht="33">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="17.25" thickBot="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C16" s="7"/>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C20" s="7"/>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18" thickTop="1" thickBot="1">
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="3:6" ht="17.25" thickTop="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F23:F24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="F15" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4"/>
+    <hyperlink ref="F23" r:id="rId5"/>
+    <hyperlink ref="F12" r:id="rId6"/>
+    <hyperlink ref="F22" r:id="rId7"/>
+    <hyperlink ref="F20" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
